--- a/pred_ohlcv/54_21/2020-01-12 FCT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 FCT ohlcv.xlsx
@@ -964,7 +964,7 @@
         <v>35205.2871736182</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-27099.8805263818</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>113392.5750736182</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>173172.7485736182</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>143667.4194736182</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-168368.9549263818</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-176562.3619263818</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-187593.1210263818</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-248639.8237263818</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-266000.9371263818</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-603454.5864263817</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-490627.7933263817</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-220432.4925263817</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-258818.9752263817</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-266917.1793263817</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-266864.0443263817</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-266864.0443263817</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-258857.5182263817</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-258857.5182263817</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-258799.5182263817</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-394394.7353454755</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-394423.4885454755</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-394213.8587240931</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-394342.0658240931</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-414170.2437240931</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-5903664.398445345</v>
       </c>
       <c r="H273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-5899363.030945346</v>
       </c>
       <c r="H274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-5907812.199745346</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-5907752.041145346</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-5900508.868945346</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-5896307.638245346</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-5880434.389745346</v>
       </c>
       <c r="H279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-5880374.688245346</v>
       </c>
       <c r="H280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-5908324.511045346</v>
       </c>
       <c r="H283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-5921668.227545346</v>
       </c>
       <c r="H286">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-5921668.227545346</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-5923111.925345346</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-5910909.211245346</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-5906306.200445346</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-5906306.200445346</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-5938306.521239058</v>
       </c>
       <c r="H328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-5938271.341139058</v>
       </c>
       <c r="H329">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-5940698.977539058</v>
       </c>
       <c r="H330">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-5946215.793339058</v>
       </c>
       <c r="H331">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-5960527.340539058</v>
       </c>
       <c r="H332">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-5971703.377339058</v>
       </c>
       <c r="H333">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-6203091.746239058</v>
       </c>
       <c r="H334">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-6203038.746239058</v>
       </c>
       <c r="H335">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-6203038.746239058</v>
       </c>
       <c r="H336">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-6204412.605739058</v>
       </c>
       <c r="H337">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-6214003.514039058</v>
       </c>
       <c r="H338">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-6222720.698939058</v>
       </c>
       <c r="H339">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-6220411.158639058</v>
       </c>
       <c r="H340">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-6204150.419639057</v>
       </c>
       <c r="H341">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-6204204.269939058</v>
       </c>
       <c r="H342">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-6204204.269939058</v>
       </c>
       <c r="H343">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-6295004.958639057</v>
       </c>
       <c r="H344">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-6290885.901039057</v>
       </c>
       <c r="H345">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-6290885.901039057</v>
       </c>
       <c r="H346">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-6290601.854739057</v>
       </c>
       <c r="H350">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-6261930.978339056</v>
       </c>
       <c r="H353">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-6261858.868639057</v>
       </c>
       <c r="H354">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-6263263.958239056</v>
       </c>
       <c r="H356">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-6036188.932439056</v>
       </c>
       <c r="H372">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-6041504.766139057</v>
       </c>
       <c r="H373">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-6041504.766139057</v>
       </c>
       <c r="H374">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-6041504.766139057</v>
       </c>
       <c r="H375">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-6043677.315639056</v>
       </c>
       <c r="H376">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-6012613.256939056</v>
       </c>
       <c r="H377">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-6012613.256939056</v>
       </c>
       <c r="H378">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-6001710.470539057</v>
       </c>
       <c r="H379">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-6001710.470539057</v>
       </c>
       <c r="H380">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-6002023.839639056</v>
       </c>
       <c r="H381">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-6002023.839639056</v>
       </c>
       <c r="H382">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-6002023.839639056</v>
       </c>
       <c r="H383">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-1794246.346439056</v>
       </c>
       <c r="H384">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-12 FCT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 FCT ohlcv.xlsx
@@ -990,7 +990,7 @@
         <v>-27099.8805263818</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>143667.4194736182</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-168368.9549263818</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-168368.9549263818</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-217792.2536263817</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-258818.9752263817</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-266917.1793263817</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-266864.0443263817</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-266864.0443263817</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-258857.5182263817</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-258857.5182263817</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-399059.6730170002</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-399059.6730170002</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-399111.7699170002</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-399164.0985170002</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-394394.7353454755</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-394394.7353454755</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-394423.4885454755</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-394213.8587240931</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-394342.0658240931</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-414170.2437240931</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-5921668.227545346</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-5906306.200445346</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-5906306.200445346</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-5771374.332939058</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-5797855.895439058</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-5713712.491639058</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-5713712.491639058</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-5733112.750739058</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-5733097.750739058</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-5733097.750739058</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-5733039.718539058</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-5718903.626639058</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-5844358.647239058</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-5844273.344539058</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-5844246.827539058</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-5872716.813339058</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-5834405.106239058</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-5834405.106239058</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-5833705.106239058</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-5833705.106239058</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-5832261.106239058</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-5892398.465939058</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-5892598.465939058</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-5919386.193539058</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-5924082.660039058</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-5938306.521239058</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-5938271.341139058</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-5940698.977539058</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-5946215.793339058</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-5960527.340539058</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-5971703.377339058</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-6203091.746239058</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-6203038.746239058</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-6203038.746239058</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-6204412.605739058</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-6214003.514039058</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-6222720.698939058</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-6220411.158639058</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-6204150.419639057</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-6204204.269939058</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-6204204.269939058</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-6295004.958639057</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-6290885.901039057</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-6290885.901039057</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-6290601.854739057</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-6261930.978339056</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-6261858.868639057</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-6263263.958239056</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-6036188.932439056</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-6041504.766139057</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-6041504.766139057</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-6041504.766139057</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-6043677.315639056</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-6012613.256939056</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-6012613.256939056</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-6001710.470539057</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-6001710.470539057</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-6002023.839639056</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-6002023.839639056</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-6002023.839639056</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-1794246.346439056</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-1794900.454739056</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-1742096.155739056</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-1749754.230139056</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-1782182.100639056</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-1782122.100639056</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-1798653.238739056</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-1767230.539839056</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
